--- a/R_Introduction/dirty_files/Dirty_Data.xlsx
+++ b/R_Introduction/dirty_files/Dirty_Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Please talk to the teacher for more exercises</t>
   </si>
@@ -25,7 +25,7 @@
     <t>FAVORITE</t>
   </si>
   <si>
-    <t>Number</t>
+    <t>Student</t>
   </si>
   <si>
     <t>Name</t>
@@ -43,6 +43,9 @@
     <t>sport</t>
   </si>
   <si>
+    <t>Student_001</t>
+  </si>
+  <si>
     <t>Jimmy</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>football</t>
   </si>
   <si>
+    <t>Student_002</t>
+  </si>
+  <si>
     <t>Mathilde</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>soccer</t>
   </si>
   <si>
+    <t>Student_003</t>
+  </si>
+  <si>
     <t>Laura</t>
   </si>
   <si>
@@ -76,6 +85,9 @@
     <t>ballet</t>
   </si>
   <si>
+    <t>Student_004</t>
+  </si>
+  <si>
     <t>Selma</t>
   </si>
   <si>
@@ -88,12 +100,18 @@
     <t>swimming</t>
   </si>
   <si>
+    <t>Student_005</t>
+  </si>
+  <si>
     <t>ELSA</t>
   </si>
   <si>
     <t>fem</t>
   </si>
   <si>
+    <t>Student_006</t>
+  </si>
+  <si>
     <t>Andreas</t>
   </si>
   <si>
@@ -106,13 +124,16 @@
     <t>MALE</t>
   </si>
   <si>
+    <t>Student_007</t>
+  </si>
+  <si>
     <t>Tom</t>
   </si>
   <si>
     <t>pear</t>
   </si>
   <si>
-    <t>eight</t>
+    <t>Student_00eight</t>
   </si>
   <si>
     <t>Lily</t>
@@ -127,6 +148,9 @@
     <t>orange</t>
   </si>
   <si>
+    <t>Student_009</t>
+  </si>
+  <si>
     <t>Max</t>
   </si>
   <si>
@@ -139,10 +163,16 @@
     <t>karate</t>
   </si>
   <si>
+    <t>Student_0010</t>
+  </si>
+  <si>
     <t>Priscilla</t>
   </si>
   <si>
     <t>strawberry</t>
+  </si>
+  <si>
+    <t>Student_011</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -447,211 +477,211 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>1.0</v>
+      <c r="A4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>10.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>2.0</v>
+      <c r="A5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>11.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>3.0</v>
+      <c r="A6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
         <v>10.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>4.0</v>
+      <c r="A7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
         <v>9.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>5.0</v>
+      <c r="A8" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>10.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>6.0</v>
+      <c r="A9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1">
         <v>100.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>7.0</v>
+      <c r="A10" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1">
         <v>9.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1">
-        <v>9.0</v>
+      <c r="A12" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1">
         <v>11.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1">
-        <v>10.0</v>
+      <c r="A13" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1">
         <v>12.0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1">
-        <v>11.0</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1">
         <v>18.0</v>
